--- a/数据_2023-10-31.xlsx
+++ b/数据_2023-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,87 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>贷款金额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>风险笔数</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>客户数量</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>收入金额</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>104196.49</v>
+        <v>153741.0263065412</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>2834620.018922479</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="G2" t="n">
+        <v>103</v>
+      </c>
+      <c r="H2" t="n">
+        <v>51313.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>188764.22</v>
+        <v>1468969.20408285</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>890630.1047668741</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>207935.65</v>
       </c>
     </row>
     <row r="4">
@@ -534,24 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221115.71</v>
+        <v>200283.5878429658</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>4422348.369498308</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>271792.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -560,24 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>56734.37</v>
+        <v>2194214.752907671</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>4766556.582952569</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>94965.85000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,13 +620,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>431063.02</v>
+        <v>1770230.183864458</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>83854.73233256002</v>
       </c>
       <c r="F6" t="n">
-        <v>89</v>
+        <v>37</v>
+      </c>
+      <c r="G6" t="n">
+        <v>91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>239258.64</v>
       </c>
     </row>
     <row r="7">
@@ -608,43 +648,55 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>107291.93</v>
+        <v>281512.8955514015</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>526050.4874715738</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>86319.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>115407.59</v>
+        <v>15003.6657638402</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>128822.7586327617</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>134597.14</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -664,19 +716,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>258233.59</v>
+        <v>450839.9492575828</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>310350.504575905</v>
       </c>
       <c r="F9" t="n">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>138517.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -686,23 +744,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>291826.22</v>
+        <v>29500.17562795269</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>622279.5216885221</v>
       </c>
       <c r="F10" t="n">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>284978.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -712,28 +776,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>246415.53</v>
+        <v>1005759.655200845</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1947463.00942464</v>
       </c>
       <c r="F11" t="n">
-        <v>87</v>
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>150047.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -742,39 +812,51 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>160265.67</v>
+        <v>1737220.061387372</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>50274.00292176843</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>181665.18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>135815.3</v>
+        <v>49457.26005761476</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>1709164.900246753</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H13" t="n">
+        <v>260438.33</v>
       </c>
     </row>
     <row r="14">
@@ -785,28 +867,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>270186.37</v>
+        <v>2102888.131485814</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>1988194.528136262</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>210604.97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -816,49 +904,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>486598.18</v>
+        <v>170682.4103534034</v>
       </c>
       <c r="E15" t="n">
-        <v>33</v>
+        <v>87254.99455008053</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>91</v>
+      </c>
+      <c r="H15" t="n">
+        <v>232855.91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>163666.37</v>
+        <v>1309663.502575646</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>14009.17716598677</v>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="G16" t="n">
+        <v>103</v>
+      </c>
+      <c r="H16" t="n">
+        <v>314624.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -868,54 +968,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>285598.93</v>
+        <v>32952.35614919589</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>32808.26426133445</v>
       </c>
       <c r="F17" t="n">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>181545.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>453757.66</v>
+        <v>388724.7913111061</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>1182263.352571192</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="G18" t="n">
+        <v>46</v>
+      </c>
+      <c r="H18" t="n">
+        <v>83695.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -924,13 +1036,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34172.83</v>
+        <v>270842.8870954439</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>372374.1965506413</v>
       </c>
       <c r="F19" t="n">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>328058.29</v>
       </c>
     </row>
     <row r="20">
@@ -941,7 +1059,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -950,13 +1068,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>414535.98</v>
+        <v>1393089.507574455</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>428826.1658750017</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>103159.98</v>
       </c>
     </row>
     <row r="21">
@@ -972,153 +1096,189 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>267163.9</v>
+        <v>2168713.673682014</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>266986.735512916</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>87</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30449.61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>279183.15</v>
+        <v>62794.42370068258</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>92065.96979819573</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="G22" t="n">
+        <v>80</v>
+      </c>
+      <c r="H22" t="n">
+        <v>237450.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>504738.05</v>
+        <v>814109.6067219855</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>500215.4936638635</v>
       </c>
       <c r="F23" t="n">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="G23" t="n">
+        <v>66</v>
+      </c>
+      <c r="H23" t="n">
+        <v>302116.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>363893.94</v>
+        <v>723899.4894443635</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>853665.1978057801</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>38457.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>330413.98</v>
+        <v>408913.5016701258</v>
       </c>
       <c r="E25" t="n">
-        <v>49</v>
+        <v>405074.0896155906</v>
       </c>
       <c r="F25" t="n">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="G25" t="n">
+        <v>79</v>
+      </c>
+      <c r="H25" t="n">
+        <v>188465.57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>332629.8</v>
+        <v>121239.7469829659</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>3819142.615846491</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37</v>
+      </c>
+      <c r="H26" t="n">
+        <v>248344.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1132,92 +1292,116 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>398267.8</v>
+        <v>338359.1352757905</v>
       </c>
       <c r="E27" t="n">
-        <v>46</v>
+        <v>2377745.180435199</v>
       </c>
       <c r="F27" t="n">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>177738.99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>164128.77</v>
+        <v>1074101.400232668</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>75185.48773229889</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="G28" t="n">
+        <v>63</v>
+      </c>
+      <c r="H28" t="n">
+        <v>125657.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>194099.38</v>
+        <v>29546.16977742996</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>60384.35593742783</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>168436.31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>358354.59</v>
+        <v>28672.88740623492</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>1376677.611848007</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
+      <c r="G30" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>123173.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1227,22 +1411,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>454386.52</v>
+        <v>37519.66213909048</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>19481.76759327473</v>
       </c>
       <c r="F31" t="n">
-        <v>92</v>
+        <v>36</v>
+      </c>
+      <c r="G31" t="n">
+        <v>65</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22220.89</v>
       </c>
     </row>
     <row r="32">
@@ -1253,106 +1443,130 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>84703.8</v>
+        <v>1704721.432241341</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>100663.0304237983</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>32</v>
+      </c>
+      <c r="H32" t="n">
+        <v>297754.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>350755.08</v>
+        <v>37232.18505799417</v>
       </c>
       <c r="E33" t="n">
-        <v>52</v>
+        <v>28887.92837834413</v>
       </c>
       <c r="F33" t="n">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+      <c r="H33" t="n">
+        <v>196924.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>236398.73</v>
+        <v>148950.7882633922</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>4156192.075680652</v>
       </c>
       <c r="F34" t="n">
-        <v>80</v>
+        <v>25</v>
+      </c>
+      <c r="G34" t="n">
+        <v>101</v>
+      </c>
+      <c r="H34" t="n">
+        <v>247567.45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>139049.9</v>
+        <v>25418.2698175605</v>
       </c>
       <c r="E35" t="n">
+        <v>1195114.581477121</v>
+      </c>
+      <c r="F35" t="n">
+        <v>39</v>
+      </c>
+      <c r="G35" t="n">
         <v>55</v>
       </c>
-      <c r="F35" t="n">
-        <v>43</v>
+      <c r="H35" t="n">
+        <v>309048.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1366,45 +1580,57 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>66179.86</v>
+        <v>118269.0157004603</v>
       </c>
       <c r="E36" t="n">
+        <v>2319052.091386626</v>
+      </c>
+      <c r="F36" t="n">
         <v>25</v>
       </c>
-      <c r="F36" t="n">
-        <v>78</v>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>246649.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>161977.22</v>
+        <v>327978.0844214448</v>
       </c>
       <c r="E37" t="n">
-        <v>54</v>
+        <v>416315.4538963718</v>
       </c>
       <c r="F37" t="n">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6929.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1418,24 +1644,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>299491.94</v>
+        <v>68968.55615491114</v>
       </c>
       <c r="E38" t="n">
-        <v>44</v>
+        <v>1915438.528718502</v>
       </c>
       <c r="F38" t="n">
-        <v>104</v>
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>200731.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1444,19 +1676,25 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>406076.42</v>
+        <v>1339344.977084993</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>340935.4714713719</v>
       </c>
       <c r="F39" t="n">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="G39" t="n">
+        <v>26</v>
+      </c>
+      <c r="H39" t="n">
+        <v>48720.49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1466,17 +1704,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>108587.05</v>
+        <v>125812.6715929164</v>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>4477212.725879358</v>
       </c>
       <c r="F40" t="n">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="G40" t="n">
+        <v>97</v>
+      </c>
+      <c r="H40" t="n">
+        <v>206312.28</v>
       </c>
     </row>
     <row r="41">
@@ -1487,54 +1731,66 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>340341.03</v>
+        <v>109563.7521880659</v>
       </c>
       <c r="E41" t="n">
-        <v>20</v>
+        <v>1419412.202989339</v>
       </c>
       <c r="F41" t="n">
-        <v>105</v>
+        <v>22</v>
+      </c>
+      <c r="G41" t="n">
+        <v>61</v>
+      </c>
+      <c r="H41" t="n">
+        <v>115319.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>197349.51</v>
+        <v>130108.5690860653</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>5130882.87979375</v>
       </c>
       <c r="F42" t="n">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="G42" t="n">
+        <v>86</v>
+      </c>
+      <c r="H42" t="n">
+        <v>162971.96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1544,54 +1800,66 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>223075.57</v>
+        <v>751500.0108250676</v>
       </c>
       <c r="E43" t="n">
-        <v>13</v>
+        <v>97639.6043365246</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="G43" t="n">
+        <v>28</v>
+      </c>
+      <c r="H43" t="n">
+        <v>223626.21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>142540.8</v>
+        <v>738540.1387255463</v>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>3986189.637696476</v>
       </c>
       <c r="F44" t="n">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="G44" t="n">
+        <v>35</v>
+      </c>
+      <c r="H44" t="n">
+        <v>83153.39999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1600,65 +1868,83 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>249912.35</v>
+        <v>2183594.926492947</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>3748936.08984378</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="G45" t="n">
+        <v>58</v>
+      </c>
+      <c r="H45" t="n">
+        <v>183413.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>197813.73</v>
+        <v>161349.1224675029</v>
       </c>
       <c r="E46" t="n">
-        <v>51</v>
+        <v>65818.31001097975</v>
       </c>
       <c r="F46" t="n">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="G46" t="n">
+        <v>56</v>
+      </c>
+      <c r="H46" t="n">
+        <v>308538.81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>74783.08</v>
+        <v>15060.60115396249</v>
       </c>
       <c r="E47" t="n">
-        <v>24</v>
+        <v>294763.3589895155</v>
       </c>
       <c r="F47" t="n">
+        <v>50</v>
+      </c>
+      <c r="G47" t="n">
         <v>91</v>
+      </c>
+      <c r="H47" t="n">
+        <v>192933.08</v>
       </c>
     </row>
     <row r="48">
@@ -1669,22 +1955,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>489668.28</v>
+        <v>17674.64494998873</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>22778.4938491735</v>
       </c>
       <c r="F48" t="n">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G48" t="n">
+        <v>49</v>
+      </c>
+      <c r="H48" t="n">
+        <v>104334.96</v>
       </c>
     </row>
     <row r="49">
@@ -1700,28 +1992,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>326729.81</v>
+        <v>1029222.526117328</v>
       </c>
       <c r="E49" t="n">
-        <v>36</v>
+        <v>2747061.406997344</v>
       </c>
       <c r="F49" t="n">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="G49" t="n">
+        <v>95</v>
+      </c>
+      <c r="H49" t="n">
+        <v>43426.23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1730,13 +2028,19 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>430518.52</v>
+        <v>140800.3313685344</v>
       </c>
       <c r="E50" t="n">
-        <v>45</v>
+        <v>1182628.489325898</v>
       </c>
       <c r="F50" t="n">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="G50" t="n">
+        <v>107</v>
+      </c>
+      <c r="H50" t="n">
+        <v>130519.89</v>
       </c>
     </row>
     <row r="51">
@@ -1747,7 +2051,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1756,50 +2060,62 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>35036.18</v>
+        <v>128352.5699836022</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>76405.73163967657</v>
       </c>
       <c r="F51" t="n">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="G51" t="n">
+        <v>95</v>
+      </c>
+      <c r="H51" t="n">
+        <v>252406.44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>131278.42</v>
+        <v>337783.3535651427</v>
       </c>
       <c r="E52" t="n">
-        <v>35</v>
+        <v>3627852.429273367</v>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G52" t="n">
+        <v>54</v>
+      </c>
+      <c r="H52" t="n">
+        <v>201775.37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1808,19 +2124,25 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>352607</v>
+        <v>192811.0649815752</v>
       </c>
       <c r="E53" t="n">
-        <v>48</v>
+        <v>1530782.389466063</v>
       </c>
       <c r="F53" t="n">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22</v>
+      </c>
+      <c r="H53" t="n">
+        <v>102634.94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1834,39 +2156,51 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>344700.32</v>
+        <v>138250.8160660336</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>350477.8662735447</v>
       </c>
       <c r="F54" t="n">
-        <v>67</v>
+        <v>32</v>
+      </c>
+      <c r="G54" t="n">
+        <v>86</v>
+      </c>
+      <c r="H54" t="n">
+        <v>183463.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>362662.58</v>
+        <v>307326.4854239888</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>4058761.550924976</v>
       </c>
       <c r="F55" t="n">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>67</v>
+      </c>
+      <c r="H55" t="n">
+        <v>50327.19</v>
       </c>
     </row>
     <row r="56">
@@ -1877,54 +2211,66 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>62472.15</v>
+        <v>1472775.841407351</v>
       </c>
       <c r="E56" t="n">
-        <v>44</v>
+        <v>2245002.288110762</v>
       </c>
       <c r="F56" t="n">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="G56" t="n">
+        <v>102</v>
+      </c>
+      <c r="H56" t="n">
+        <v>72386.94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>152147.77</v>
+        <v>1666962.419626295</v>
       </c>
       <c r="E57" t="n">
+        <v>3531286.399311784</v>
+      </c>
+      <c r="F57" t="n">
         <v>8</v>
       </c>
-      <c r="F57" t="n">
-        <v>110</v>
+      <c r="G57" t="n">
+        <v>39</v>
+      </c>
+      <c r="H57" t="n">
+        <v>259904.78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1938,50 +2284,62 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>119749.75</v>
+        <v>1672479.249983047</v>
       </c>
       <c r="E58" t="n">
-        <v>41</v>
+        <v>82747.28598443202</v>
       </c>
       <c r="F58" t="n">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="G58" t="n">
+        <v>43</v>
+      </c>
+      <c r="H58" t="n">
+        <v>271808.85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>135733</v>
+        <v>1951845.63127784</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>201198.7798808181</v>
       </c>
       <c r="F59" t="n">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="G59" t="n">
+        <v>49</v>
+      </c>
+      <c r="H59" t="n">
+        <v>282586</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1990,19 +2348,25 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>117235.94</v>
+        <v>189758.8949161899</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>65796.06118373407</v>
       </c>
       <c r="F60" t="n">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="G60" t="n">
+        <v>73</v>
+      </c>
+      <c r="H60" t="n">
+        <v>61663.79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2012,23 +2376,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>412631.03</v>
+        <v>849694.278569292</v>
       </c>
       <c r="E61" t="n">
-        <v>39</v>
+        <v>24312.49401124678</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12</v>
+      </c>
+      <c r="H61" t="n">
+        <v>332536.18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2042,13 +2412,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>286429.45</v>
+        <v>177527.7660369915</v>
       </c>
       <c r="E62" t="n">
-        <v>52</v>
+        <v>3462900.567514464</v>
       </c>
       <c r="F62" t="n">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="G62" t="n">
+        <v>85</v>
+      </c>
+      <c r="H62" t="n">
+        <v>136761.47</v>
       </c>
     </row>
     <row r="63">
@@ -2059,28 +2435,34 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>19549.05</v>
+        <v>701778.1580820306</v>
       </c>
       <c r="E63" t="n">
-        <v>51</v>
+        <v>5080353.248458755</v>
       </c>
       <c r="F63" t="n">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>104</v>
+      </c>
+      <c r="H63" t="n">
+        <v>264936.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2094,13 +2476,19 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>100517.07</v>
+        <v>1160067.859412346</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>313461.399749345</v>
       </c>
       <c r="F64" t="n">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="G64" t="n">
+        <v>48</v>
+      </c>
+      <c r="H64" t="n">
+        <v>173624.13</v>
       </c>
     </row>
     <row r="65">
@@ -2111,7 +2499,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2120,45 +2508,57 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>44287.48</v>
+        <v>3617.343486243324</v>
       </c>
       <c r="E65" t="n">
-        <v>29</v>
+        <v>1732835.704047609</v>
       </c>
       <c r="F65" t="n">
-        <v>104</v>
+        <v>11</v>
+      </c>
+      <c r="G65" t="n">
+        <v>61</v>
+      </c>
+      <c r="H65" t="n">
+        <v>157716.32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>267950.05</v>
+        <v>196941.9450787399</v>
       </c>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>626592.8519176224</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G66" t="n">
+        <v>52</v>
+      </c>
+      <c r="H66" t="n">
+        <v>220106.07</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2172,19 +2572,25 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>501725.3</v>
+        <v>715374.699751167</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>4137079.256618607</v>
       </c>
       <c r="F67" t="n">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>32</v>
+      </c>
+      <c r="H67" t="n">
+        <v>151960.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2194,17 +2600,23 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>66844.61</v>
+        <v>39705.23955485731</v>
       </c>
       <c r="E68" t="n">
-        <v>46</v>
+        <v>4195384.277908518</v>
       </c>
       <c r="F68" t="n">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="G68" t="n">
+        <v>54</v>
+      </c>
+      <c r="H68" t="n">
+        <v>34820.14</v>
       </c>
     </row>
     <row r="69">
@@ -2215,7 +2627,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2224,24 +2636,30 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>321015.09</v>
+        <v>318224.5143550528</v>
       </c>
       <c r="E69" t="n">
+        <v>387911.8399581325</v>
+      </c>
+      <c r="F69" t="n">
         <v>5</v>
       </c>
-      <c r="F69" t="n">
-        <v>21</v>
+      <c r="G69" t="n">
+        <v>72</v>
+      </c>
+      <c r="H69" t="n">
+        <v>186752.93</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2250,19 +2668,25 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>517270.9</v>
+        <v>153605.6072671057</v>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>3891138.672647392</v>
       </c>
       <c r="F70" t="n">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="G70" t="n">
+        <v>16</v>
+      </c>
+      <c r="H70" t="n">
+        <v>281353.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2272,54 +2696,66 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>414892.82</v>
+        <v>1252738.287955682</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>1195918.689811265</v>
       </c>
       <c r="F71" t="n">
-        <v>88</v>
+        <v>39</v>
+      </c>
+      <c r="G71" t="n">
+        <v>81</v>
+      </c>
+      <c r="H71" t="n">
+        <v>230484.53</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>463150.24</v>
+        <v>175078.3765250361</v>
       </c>
       <c r="E72" t="n">
-        <v>27</v>
+        <v>88546.24093602576</v>
       </c>
       <c r="F72" t="n">
-        <v>48</v>
+        <v>16</v>
+      </c>
+      <c r="G72" t="n">
+        <v>68</v>
+      </c>
+      <c r="H72" t="n">
+        <v>125266.26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2328,39 +2764,51 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>382643.15</v>
+        <v>317182.259433932</v>
       </c>
       <c r="E73" t="n">
-        <v>21</v>
+        <v>3024308.237390502</v>
       </c>
       <c r="F73" t="n">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="G73" t="n">
+        <v>65</v>
+      </c>
+      <c r="H73" t="n">
+        <v>317236.46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>496425</v>
+        <v>376312.0315002855</v>
       </c>
       <c r="E74" t="n">
-        <v>44</v>
+        <v>3544339.659353441</v>
       </c>
       <c r="F74" t="n">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="G74" t="n">
+        <v>103</v>
+      </c>
+      <c r="H74" t="n">
+        <v>140330.78</v>
       </c>
     </row>
     <row r="75">
@@ -2371,33 +2819,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>59360.89</v>
+        <v>17822.28115159772</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>507129.0689971936</v>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>21</v>
+      </c>
+      <c r="G75" t="n">
+        <v>55</v>
+      </c>
+      <c r="H75" t="n">
+        <v>196924.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2406,19 +2860,25 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>42470.34</v>
+        <v>1901611.380489359</v>
       </c>
       <c r="E76" t="n">
-        <v>36</v>
+        <v>35602.34644554314</v>
       </c>
       <c r="F76" t="n">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="G76" t="n">
+        <v>63</v>
+      </c>
+      <c r="H76" t="n">
+        <v>192217.86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2428,23 +2888,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>191627.82</v>
+        <v>165529.2780306991</v>
       </c>
       <c r="E77" t="n">
-        <v>43</v>
+        <v>1123565.467369012</v>
       </c>
       <c r="F77" t="n">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="G77" t="n">
+        <v>38</v>
+      </c>
+      <c r="H77" t="n">
+        <v>56570.34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2454,28 +2920,34 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>317008.33</v>
+        <v>737088.6177977914</v>
       </c>
       <c r="E78" t="n">
-        <v>23</v>
+        <v>37621.33303113287</v>
       </c>
       <c r="F78" t="n">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="G78" t="n">
+        <v>14</v>
+      </c>
+      <c r="H78" t="n">
+        <v>163635.81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2484,24 +2956,30 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>256952.21</v>
+        <v>113093.4549639236</v>
       </c>
       <c r="E79" t="n">
-        <v>55</v>
+        <v>98393.56529888243</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G79" t="n">
+        <v>34</v>
+      </c>
+      <c r="H79" t="n">
+        <v>230293.41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2510,13 +2988,19 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>399403.66</v>
+        <v>1412421.414078898</v>
       </c>
       <c r="E80" t="n">
-        <v>37</v>
+        <v>522426.4018193355</v>
       </c>
       <c r="F80" t="n">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G80" t="n">
+        <v>107</v>
+      </c>
+      <c r="H80" t="n">
+        <v>303192.76</v>
       </c>
     </row>
     <row r="81">
@@ -2527,28 +3011,34 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>483974.82</v>
+        <v>126159.2231250625</v>
       </c>
       <c r="E81" t="n">
-        <v>54</v>
+        <v>1428302.437182286</v>
       </c>
       <c r="F81" t="n">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>69</v>
+      </c>
+      <c r="H81" t="n">
+        <v>210812.59</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2558,17 +3048,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>150821.36</v>
+        <v>49979.36478549264</v>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>889604.2404195686</v>
       </c>
       <c r="F82" t="n">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>52</v>
+      </c>
+      <c r="H82" t="n">
+        <v>69743.46000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2579,85 +3075,103 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>104154.02</v>
+        <v>610147.5238430902</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>422324.0130321545</v>
       </c>
       <c r="F83" t="n">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="G83" t="n">
+        <v>36</v>
+      </c>
+      <c r="H83" t="n">
+        <v>55507.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>388412.28</v>
+        <v>650972.6153155719</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>97514.87791682003</v>
       </c>
       <c r="F84" t="n">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="G84" t="n">
+        <v>53</v>
+      </c>
+      <c r="H84" t="n">
+        <v>281697.67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>242452.06</v>
+        <v>129479.7353948934</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>395932.5816807194</v>
       </c>
       <c r="F85" t="n">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="G85" t="n">
+        <v>71</v>
+      </c>
+      <c r="H85" t="n">
+        <v>142017.87</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2666,39 +3180,51 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>314881.68</v>
+        <v>28696.10537230951</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>1897189.548557163</v>
       </c>
       <c r="F86" t="n">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="G86" t="n">
+        <v>89</v>
+      </c>
+      <c r="H86" t="n">
+        <v>304980.95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>53443.42</v>
+        <v>421005.3387543965</v>
       </c>
       <c r="E87" t="n">
-        <v>29</v>
+        <v>98110.29095729273</v>
       </c>
       <c r="F87" t="n">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="G87" t="n">
+        <v>79</v>
+      </c>
+      <c r="H87" t="n">
+        <v>38653.88</v>
       </c>
     </row>
     <row r="88">
@@ -2714,43 +3240,55 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>236558.45</v>
+        <v>1025982.294373007</v>
       </c>
       <c r="E88" t="n">
-        <v>18</v>
+        <v>299391.4020685283</v>
       </c>
       <c r="F88" t="n">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>35182.38</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>68332</v>
+        <v>323996.0360284079</v>
       </c>
       <c r="E89" t="n">
-        <v>44</v>
+        <v>918556.5211828994</v>
       </c>
       <c r="F89" t="n">
-        <v>91</v>
+        <v>20</v>
+      </c>
+      <c r="G89" t="n">
+        <v>38</v>
+      </c>
+      <c r="H89" t="n">
+        <v>258627.48</v>
       </c>
     </row>
     <row r="90">
@@ -2761,48 +3299,60 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>124023.37</v>
+        <v>68073.56425496853</v>
       </c>
       <c r="E90" t="n">
-        <v>39</v>
+        <v>152469.2147602031</v>
       </c>
       <c r="F90" t="n">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="G90" t="n">
+        <v>33</v>
+      </c>
+      <c r="H90" t="n">
+        <v>48455.83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>492224.64</v>
+        <v>793607.4740909741</v>
       </c>
       <c r="E91" t="n">
-        <v>50</v>
+        <v>30149.16461096805</v>
       </c>
       <c r="F91" t="n">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="G91" t="n">
+        <v>21</v>
+      </c>
+      <c r="H91" t="n">
+        <v>35820.32</v>
       </c>
     </row>
     <row r="92">
@@ -2813,28 +3363,34 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>72952.05</v>
+        <v>983349.5486520829</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>4636264.321124173</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>53</v>
+      </c>
+      <c r="H92" t="n">
+        <v>216313.54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2844,49 +3400,61 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>205145.38</v>
+        <v>497937.3096492024</v>
       </c>
       <c r="E93" t="n">
-        <v>46</v>
+        <v>383995.3738236433</v>
       </c>
       <c r="F93" t="n">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G93" t="n">
+        <v>66</v>
+      </c>
+      <c r="H93" t="n">
+        <v>24321.66</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>449776.3</v>
+        <v>163444.2241300674</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>108771.8453075175</v>
       </c>
       <c r="F94" t="n">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="G94" t="n">
+        <v>66</v>
+      </c>
+      <c r="H94" t="n">
+        <v>178629.62</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2896,43 +3464,55 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>449951.89</v>
+        <v>59823.9439163268</v>
       </c>
       <c r="E95" t="n">
-        <v>37</v>
+        <v>99486.22941641974</v>
       </c>
       <c r="F95" t="n">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="G95" t="n">
+        <v>108</v>
+      </c>
+      <c r="H95" t="n">
+        <v>322177.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>70508.07000000001</v>
+        <v>159914.8594849106</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>87805.08653396826</v>
       </c>
       <c r="F96" t="n">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="G96" t="n">
+        <v>107</v>
+      </c>
+      <c r="H96" t="n">
+        <v>134355.81</v>
       </c>
     </row>
     <row r="97">
@@ -2943,54 +3523,66 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>479243.03</v>
+        <v>765610.9987491404</v>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>77355.1837583728</v>
       </c>
       <c r="F97" t="n">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="G97" t="n">
+        <v>77</v>
+      </c>
+      <c r="H97" t="n">
+        <v>52777.54</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>311146.61</v>
+        <v>892583.6342314485</v>
       </c>
       <c r="E98" t="n">
-        <v>34</v>
+        <v>115291.5284639088</v>
       </c>
       <c r="F98" t="n">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="G98" t="n">
+        <v>83</v>
+      </c>
+      <c r="H98" t="n">
+        <v>67205.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3000,23 +3592,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>184472.75</v>
+        <v>9230.305594659329</v>
       </c>
       <c r="E99" t="n">
-        <v>22</v>
+        <v>452625.7985650533</v>
       </c>
       <c r="F99" t="n">
-        <v>104</v>
+        <v>24</v>
+      </c>
+      <c r="G99" t="n">
+        <v>14</v>
+      </c>
+      <c r="H99" t="n">
+        <v>129517.39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3026,49 +3624,61 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>333678.13</v>
+        <v>451646.1759481756</v>
       </c>
       <c r="E100" t="n">
-        <v>34</v>
+        <v>4767219.718225202</v>
       </c>
       <c r="F100" t="n">
-        <v>70</v>
+        <v>42</v>
+      </c>
+      <c r="G100" t="n">
+        <v>45</v>
+      </c>
+      <c r="H100" t="n">
+        <v>63544.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>381508.59</v>
+        <v>119931.4566448433</v>
       </c>
       <c r="E101" t="n">
-        <v>53</v>
+        <v>685618.4176923682</v>
       </c>
       <c r="F101" t="n">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="G101" t="n">
+        <v>78</v>
+      </c>
+      <c r="H101" t="n">
+        <v>136121.43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3078,28 +3688,34 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>86393.66</v>
+        <v>863072.7297096105</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>366680.7375218156</v>
       </c>
       <c r="F102" t="n">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="G102" t="n">
+        <v>23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>106574.56</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3108,50 +3724,62 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>495256.41</v>
+        <v>46089.11869393025</v>
       </c>
       <c r="E103" t="n">
-        <v>41</v>
+        <v>990668.3320045165</v>
       </c>
       <c r="F103" t="n">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="G103" t="n">
+        <v>93</v>
+      </c>
+      <c r="H103" t="n">
+        <v>26391.07</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>481470.36</v>
+        <v>1447797.696540146</v>
       </c>
       <c r="E104" t="n">
-        <v>37</v>
+        <v>485274.3024743896</v>
       </c>
       <c r="F104" t="n">
-        <v>87</v>
+        <v>25</v>
+      </c>
+      <c r="G104" t="n">
+        <v>49</v>
+      </c>
+      <c r="H104" t="n">
+        <v>172743.88</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3160,24 +3788,30 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>235399.51</v>
+        <v>1008015.708804997</v>
       </c>
       <c r="E105" t="n">
-        <v>31</v>
+        <v>544060.2377152155</v>
       </c>
       <c r="F105" t="n">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="G105" t="n">
+        <v>14</v>
+      </c>
+      <c r="H105" t="n">
+        <v>118405.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3186,24 +3820,30 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>40535.44</v>
+        <v>20167.66245025164</v>
       </c>
       <c r="E106" t="n">
-        <v>33</v>
+        <v>4216134.337770636</v>
       </c>
       <c r="F106" t="n">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26</v>
+      </c>
+      <c r="H106" t="n">
+        <v>197679.64</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3212,39 +3852,51 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>31104.48</v>
+        <v>213996.1720238479</v>
       </c>
       <c r="E107" t="n">
-        <v>24</v>
+        <v>1218326.104218386</v>
       </c>
       <c r="F107" t="n">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>11</v>
+      </c>
+      <c r="H107" t="n">
+        <v>131179.1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>313792.55</v>
+        <v>214176.435296949</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>2248497.959164424</v>
       </c>
       <c r="F108" t="n">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>86</v>
+      </c>
+      <c r="H108" t="n">
+        <v>94563.22</v>
       </c>
     </row>
     <row r="109">
@@ -3255,54 +3907,66 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>343133.43</v>
+        <v>1547942.692594492</v>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>71749.52200404314</v>
       </c>
       <c r="F109" t="n">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="G109" t="n">
+        <v>53</v>
+      </c>
+      <c r="H109" t="n">
+        <v>122473.35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>240865.74</v>
+        <v>361549.4830799364</v>
       </c>
       <c r="E110" t="n">
-        <v>52</v>
+        <v>25717.58922335726</v>
       </c>
       <c r="F110" t="n">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="G110" t="n">
+        <v>15</v>
+      </c>
+      <c r="H110" t="n">
+        <v>224498.15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3312,49 +3976,61 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>137853.81</v>
+        <v>47762.60607664167</v>
       </c>
       <c r="E111" t="n">
-        <v>29</v>
+        <v>5312559.229299154</v>
       </c>
       <c r="F111" t="n">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="G111" t="n">
+        <v>78</v>
+      </c>
+      <c r="H111" t="n">
+        <v>285665.66</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>478311.89</v>
+        <v>29188.55089252053</v>
       </c>
       <c r="E112" t="n">
-        <v>25</v>
+        <v>162289.9358866799</v>
       </c>
       <c r="F112" t="n">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="G112" t="n">
+        <v>26</v>
+      </c>
+      <c r="H112" t="n">
+        <v>324132.26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3364,28 +4040,34 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>340831.12</v>
+        <v>54048.9684643581</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>453499.1829275769</v>
       </c>
       <c r="F113" t="n">
         <v>47</v>
       </c>
+      <c r="G113" t="n">
+        <v>108</v>
+      </c>
+      <c r="H113" t="n">
+        <v>26472.85</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3394,71 +4076,89 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>140013.86</v>
+        <v>1997973.860760055</v>
       </c>
       <c r="E114" t="n">
-        <v>55</v>
+        <v>1960031.770163708</v>
       </c>
       <c r="F114" t="n">
-        <v>89</v>
+        <v>37</v>
+      </c>
+      <c r="G114" t="n">
+        <v>80</v>
+      </c>
+      <c r="H114" t="n">
+        <v>199263.32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>308031.67</v>
+        <v>44903.27789886368</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>1441846.647367186</v>
       </c>
       <c r="F115" t="n">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="G115" t="n">
+        <v>67</v>
+      </c>
+      <c r="H115" t="n">
+        <v>187178.3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>314280.94</v>
+        <v>159591.1995988229</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>1813964.748255351</v>
       </c>
       <c r="F116" t="n">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="G116" t="n">
+        <v>93</v>
+      </c>
+      <c r="H116" t="n">
+        <v>82938</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3472,19 +4172,25 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>352419.13</v>
+        <v>745877.0084274898</v>
       </c>
       <c r="E117" t="n">
-        <v>54</v>
+        <v>1484951.26489199</v>
       </c>
       <c r="F117" t="n">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17</v>
+      </c>
+      <c r="H117" t="n">
+        <v>307296.87</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3494,43 +4200,55 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>195808.67</v>
+        <v>707697.7214788386</v>
       </c>
       <c r="E118" t="n">
-        <v>24</v>
+        <v>28021.43503656836</v>
       </c>
       <c r="F118" t="n">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="G118" t="n">
+        <v>57</v>
+      </c>
+      <c r="H118" t="n">
+        <v>247266.73</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>493415.48</v>
+        <v>67080.92172000909</v>
       </c>
       <c r="E119" t="n">
-        <v>32</v>
+        <v>2182381.479468192</v>
       </c>
       <c r="F119" t="n">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="G119" t="n">
+        <v>8</v>
+      </c>
+      <c r="H119" t="n">
+        <v>62863.21</v>
       </c>
     </row>
     <row r="120">
@@ -3541,7 +4259,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3550,13 +4268,19 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>51199.86</v>
+        <v>26679.34856056031</v>
       </c>
       <c r="E120" t="n">
+        <v>231042.7707181414</v>
+      </c>
+      <c r="F120" t="n">
+        <v>33</v>
+      </c>
+      <c r="G120" t="n">
         <v>55</v>
       </c>
-      <c r="F120" t="n">
-        <v>105</v>
+      <c r="H120" t="n">
+        <v>200603.15</v>
       </c>
     </row>
     <row r="121">
@@ -3567,80 +4291,98 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>183076.3</v>
+        <v>1615360.715693413</v>
       </c>
       <c r="E121" t="n">
-        <v>50</v>
+        <v>3749469.984952835</v>
       </c>
       <c r="F121" t="n">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="G121" t="n">
+        <v>38</v>
+      </c>
+      <c r="H121" t="n">
+        <v>248285.97</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>94421.58</v>
+        <v>9945.611514279241</v>
       </c>
       <c r="E122" t="n">
-        <v>54</v>
+        <v>480370.219905577</v>
       </c>
       <c r="F122" t="n">
-        <v>93</v>
+        <v>44</v>
+      </c>
+      <c r="G122" t="n">
+        <v>31</v>
+      </c>
+      <c r="H122" t="n">
+        <v>90366.45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>220716.17</v>
+        <v>163304.1590461122</v>
       </c>
       <c r="E123" t="n">
-        <v>44</v>
+        <v>32575.59187897868</v>
       </c>
       <c r="F123" t="n">
-        <v>97</v>
+        <v>20</v>
+      </c>
+      <c r="G123" t="n">
+        <v>96</v>
+      </c>
+      <c r="H123" t="n">
+        <v>317637.34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3650,28 +4392,34 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>156743.39</v>
+        <v>1208967.089390221</v>
       </c>
       <c r="E124" t="n">
-        <v>48</v>
+        <v>3619224.383555907</v>
       </c>
       <c r="F124" t="n">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="G124" t="n">
+        <v>52</v>
+      </c>
+      <c r="H124" t="n">
+        <v>185880.28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3680,19 +4428,25 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>133497.6</v>
+        <v>26662.87098349674</v>
       </c>
       <c r="E125" t="n">
-        <v>52</v>
+        <v>1261667.924641634</v>
       </c>
       <c r="F125" t="n">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="G125" t="n">
+        <v>88</v>
+      </c>
+      <c r="H125" t="n">
+        <v>240381.59</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3702,28 +4456,34 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>356579.87</v>
+        <v>209097.3840311328</v>
       </c>
       <c r="E126" t="n">
-        <v>37</v>
+        <v>4147587.550614689</v>
       </c>
       <c r="F126" t="n">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8</v>
+      </c>
+      <c r="H126" t="n">
+        <v>224077.58</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3732,91 +4492,115 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>267476.6</v>
+        <v>1866468.204305497</v>
       </c>
       <c r="E127" t="n">
-        <v>27</v>
+        <v>258938.0426735849</v>
       </c>
       <c r="F127" t="n">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="G127" t="n">
+        <v>73</v>
+      </c>
+      <c r="H127" t="n">
+        <v>208297.67</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>38507.34</v>
+        <v>103199.5136534416</v>
       </c>
       <c r="E128" t="n">
-        <v>31</v>
+        <v>1318182.184440083</v>
       </c>
       <c r="F128" t="n">
-        <v>52</v>
+        <v>12</v>
+      </c>
+      <c r="G128" t="n">
+        <v>92</v>
+      </c>
+      <c r="H128" t="n">
+        <v>296185.34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>54608.56</v>
+        <v>515008.1910081542</v>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>798134.7545603532</v>
       </c>
       <c r="F129" t="n">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="G129" t="n">
+        <v>20</v>
+      </c>
+      <c r="H129" t="n">
+        <v>160581.99</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>58590.49</v>
+        <v>47343.30265970774</v>
       </c>
       <c r="E130" t="n">
-        <v>15</v>
+        <v>1010887.261919124</v>
       </c>
       <c r="F130" t="n">
-        <v>109</v>
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>22</v>
+      </c>
+      <c r="H130" t="n">
+        <v>316877.64</v>
       </c>
     </row>
     <row r="131">
@@ -3827,48 +4611,60 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>222767.63</v>
+        <v>183318.0953650012</v>
       </c>
       <c r="E131" t="n">
-        <v>26</v>
+        <v>231180.3694858932</v>
       </c>
       <c r="F131" t="n">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="G131" t="n">
+        <v>40</v>
+      </c>
+      <c r="H131" t="n">
+        <v>73935.60000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>517218.88</v>
+        <v>158286.9745297268</v>
       </c>
       <c r="E132" t="n">
-        <v>24</v>
+        <v>3204916.79642782</v>
       </c>
       <c r="F132" t="n">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>179210.56</v>
       </c>
     </row>
     <row r="133">
@@ -3884,23 +4680,29 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>438301.55</v>
+        <v>55343.51841726171</v>
       </c>
       <c r="E133" t="n">
-        <v>42</v>
+        <v>211023.5231733651</v>
       </c>
       <c r="F133" t="n">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="G133" t="n">
+        <v>21</v>
+      </c>
+      <c r="H133" t="n">
+        <v>38134.62</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3914,13 +4716,19 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>157734.73</v>
+        <v>16846.54323112285</v>
       </c>
       <c r="E134" t="n">
-        <v>54</v>
+        <v>1016460.809707063</v>
       </c>
       <c r="F134" t="n">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="G134" t="n">
+        <v>48</v>
+      </c>
+      <c r="H134" t="n">
+        <v>322476.34</v>
       </c>
     </row>
     <row r="135">
@@ -3931,7 +4739,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3940,39 +4748,51 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>324596.91</v>
+        <v>13688.72559370521</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>188569.8592749771</v>
       </c>
       <c r="F135" t="n">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26</v>
+      </c>
+      <c r="H135" t="n">
+        <v>45511.98</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>290792.56</v>
+        <v>737185.5349036496</v>
       </c>
       <c r="E136" t="n">
-        <v>47</v>
+        <v>75516.18217200784</v>
       </c>
       <c r="F136" t="n">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>11</v>
+      </c>
+      <c r="H136" t="n">
+        <v>223419.24</v>
       </c>
     </row>
     <row r="137">
@@ -3988,17 +4808,23 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>132721.24</v>
+        <v>516290.8079955411</v>
       </c>
       <c r="E137" t="n">
-        <v>8</v>
+        <v>40297.29693719624</v>
       </c>
       <c r="F137" t="n">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="G137" t="n">
+        <v>71</v>
+      </c>
+      <c r="H137" t="n">
+        <v>92308.84</v>
       </c>
     </row>
     <row r="138">
@@ -4014,49 +4840,61 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>415300.75</v>
+        <v>16760.8365901576</v>
       </c>
       <c r="E138" t="n">
-        <v>30</v>
+        <v>2283018.836459962</v>
       </c>
       <c r="F138" t="n">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="G138" t="n">
+        <v>71</v>
+      </c>
+      <c r="H138" t="n">
+        <v>311286.26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>284315.32</v>
+        <v>31787.88432131387</v>
       </c>
       <c r="E139" t="n">
-        <v>41</v>
+        <v>2710982.430395847</v>
       </c>
       <c r="F139" t="n">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="G139" t="n">
+        <v>16</v>
+      </c>
+      <c r="H139" t="n">
+        <v>303468.05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4066,17 +4904,23 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>230053.36</v>
+        <v>38646.60159067244</v>
       </c>
       <c r="E140" t="n">
-        <v>40</v>
+        <v>1219491.249979661</v>
       </c>
       <c r="F140" t="n">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="G140" t="n">
+        <v>38</v>
+      </c>
+      <c r="H140" t="n">
+        <v>147637.58</v>
       </c>
     </row>
     <row r="141">
@@ -4087,54 +4931,66 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>349500.62</v>
+        <v>736299.5729822734</v>
       </c>
       <c r="E141" t="n">
+        <v>20327.31501412443</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3</v>
+      </c>
+      <c r="G141" t="n">
         <v>6</v>
       </c>
-      <c r="F141" t="n">
-        <v>72</v>
+      <c r="H141" t="n">
+        <v>281034.23</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>288393.64</v>
+        <v>2095628.219105955</v>
       </c>
       <c r="E142" t="n">
-        <v>51</v>
+        <v>45898.78710308678</v>
       </c>
       <c r="F142" t="n">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="G142" t="n">
+        <v>56</v>
+      </c>
+      <c r="H142" t="n">
+        <v>132384.83</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4148,76 +5004,94 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>34115.49</v>
+        <v>74967.85165529454</v>
       </c>
       <c r="E143" t="n">
-        <v>25</v>
+        <v>108611.4948546721</v>
       </c>
       <c r="F143" t="n">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="G143" t="n">
+        <v>58</v>
+      </c>
+      <c r="H143" t="n">
+        <v>295242.46</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>412568.17</v>
+        <v>1927817.519007133</v>
       </c>
       <c r="E144" t="n">
-        <v>23</v>
+        <v>313409.8121805774</v>
       </c>
       <c r="F144" t="n">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="G144" t="n">
+        <v>61</v>
+      </c>
+      <c r="H144" t="n">
+        <v>19604.29</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>34522.53</v>
+        <v>219693.3353799662</v>
       </c>
       <c r="E145" t="n">
-        <v>35</v>
+        <v>1109620.357461574</v>
       </c>
       <c r="F145" t="n">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="G145" t="n">
+        <v>17</v>
+      </c>
+      <c r="H145" t="n">
+        <v>146312.79</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华北区</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4226,65 +5100,83 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>255093.84</v>
+        <v>1108162.07176894</v>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>12301.29808276588</v>
       </c>
       <c r="F146" t="n">
-        <v>108</v>
+        <v>33</v>
+      </c>
+      <c r="G146" t="n">
+        <v>65</v>
+      </c>
+      <c r="H146" t="n">
+        <v>286274.35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>华东区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>406304.72</v>
+        <v>107387.3386492356</v>
       </c>
       <c r="E147" t="n">
-        <v>30</v>
+        <v>338726.1032936014</v>
       </c>
       <c r="F147" t="n">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="G147" t="n">
+        <v>35</v>
+      </c>
+      <c r="H147" t="n">
+        <v>30357.73</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>华南区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>413883.48</v>
+        <v>1353885.455328543</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>20415.91077463275</v>
       </c>
       <c r="F148" t="n">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="G148" t="n">
+        <v>75</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5247.47</v>
       </c>
     </row>
     <row r="149">
@@ -4295,7 +5187,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4304,50 +5196,62 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>252487.08</v>
+        <v>2107951.392851567</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>92212.29750985291</v>
       </c>
       <c r="F149" t="n">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="G149" t="n">
+        <v>76</v>
+      </c>
+      <c r="H149" t="n">
+        <v>252211.61</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>产品线B</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>西部区</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>449966.37</v>
+        <v>40964.23607894115</v>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>926428.5971532408</v>
       </c>
       <c r="F150" t="n">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="G150" t="n">
+        <v>42</v>
+      </c>
+      <c r="H150" t="n">
+        <v>177793.63</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>产品线C</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4356,13 +5260,19 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>418065.95</v>
+        <v>1086396.282682499</v>
       </c>
       <c r="E151" t="n">
-        <v>28</v>
+        <v>2026348.508956851</v>
       </c>
       <c r="F151" t="n">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="G151" t="n">
+        <v>20</v>
+      </c>
+      <c r="H151" t="n">
+        <v>298774.28</v>
       </c>
     </row>
     <row r="152">
@@ -4373,22 +5283,28 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>506651.58</v>
+        <v>288861.7718582975</v>
       </c>
       <c r="E152" t="n">
-        <v>32</v>
+        <v>84664.13074613809</v>
       </c>
       <c r="F152" t="n">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="G152" t="n">
+        <v>80</v>
+      </c>
+      <c r="H152" t="n">
+        <v>299553.51</v>
       </c>
     </row>
     <row r="153">
@@ -4399,7 +5315,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4408,19 +5324,25 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>147494.11</v>
+        <v>30730.04181098695</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>5199869.390983351</v>
       </c>
       <c r="F153" t="n">
-        <v>98</v>
+        <v>12</v>
+      </c>
+      <c r="G153" t="n">
+        <v>93</v>
+      </c>
+      <c r="H153" t="n">
+        <v>193776.61</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线B</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4434,13 +5356,19 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>318046.28</v>
+        <v>546917.365936538</v>
       </c>
       <c r="E154" t="n">
-        <v>53</v>
+        <v>233808.4610602311</v>
       </c>
       <c r="F154" t="n">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="G154" t="n">
+        <v>62</v>
+      </c>
+      <c r="H154" t="n">
+        <v>253037.21</v>
       </c>
     </row>
     <row r="155">
@@ -4456,17 +5384,23 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>低风险</t>
+          <t>高风险</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>52675.01</v>
+        <v>89141.69261261274</v>
       </c>
       <c r="E155" t="n">
-        <v>43</v>
+        <v>1319653.181712426</v>
       </c>
       <c r="F155" t="n">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>95</v>
+      </c>
+      <c r="H155" t="n">
+        <v>221536.26</v>
       </c>
     </row>
     <row r="156">
@@ -4477,59 +5411,71 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>西部区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>376572.76</v>
+        <v>1715677.332852249</v>
       </c>
       <c r="E156" t="n">
-        <v>11</v>
+        <v>4282068.309192377</v>
       </c>
       <c r="F156" t="n">
-        <v>93</v>
+        <v>35</v>
+      </c>
+      <c r="G156" t="n">
+        <v>41</v>
+      </c>
+      <c r="H156" t="n">
+        <v>282916.37</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线A</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>中风险</t>
+          <t>低风险</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>33516.42</v>
+        <v>1088420.686826979</v>
       </c>
       <c r="E157" t="n">
-        <v>23</v>
+        <v>227171.2593153856</v>
       </c>
       <c r="F157" t="n">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="G157" t="n">
+        <v>92</v>
+      </c>
+      <c r="H157" t="n">
+        <v>87906.99000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华南区</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4538,45 +5484,57 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>509853.86</v>
+        <v>20344.92620631129</v>
       </c>
       <c r="E158" t="n">
-        <v>4</v>
+        <v>427184.8733502955</v>
       </c>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G158" t="n">
+        <v>70</v>
+      </c>
+      <c r="H158" t="n">
+        <v>262343.53</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>产品线D</t>
+          <t>产品线C</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>华北区</t>
+          <t>华东区</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>高风险</t>
+          <t>中风险</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>418956.76</v>
+        <v>1467318.454588188</v>
       </c>
       <c r="E159" t="n">
-        <v>44</v>
+        <v>1503036.378225551</v>
       </c>
       <c r="F159" t="n">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="G159" t="n">
+        <v>37</v>
+      </c>
+      <c r="H159" t="n">
+        <v>72497.82000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>产品线A</t>
+          <t>产品线D</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4590,13 +5548,19 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>356469.15</v>
+        <v>721415.3516536044</v>
       </c>
       <c r="E160" t="n">
-        <v>29</v>
+        <v>458247.9887223541</v>
       </c>
       <c r="F160" t="n">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="G160" t="n">
+        <v>62</v>
+      </c>
+      <c r="H160" t="n">
+        <v>62975.27</v>
       </c>
     </row>
     <row r="161">
@@ -4607,22 +5571,1948 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>21291.69484807033</v>
+      </c>
+      <c r="E161" t="n">
+        <v>679462.8674933296</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161" t="n">
+        <v>112866.96</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>华东区</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>低风险</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>407485.81</v>
-      </c>
-      <c r="E161" t="n">
+      <c r="D162" t="n">
+        <v>629214.8093355031</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1067088.531931056</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23</v>
+      </c>
+      <c r="G162" t="n">
+        <v>14</v>
+      </c>
+      <c r="H162" t="n">
+        <v>250888.62</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>42132.92066780644</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1898543.704026051</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14</v>
+      </c>
+      <c r="G163" t="n">
+        <v>89</v>
+      </c>
+      <c r="H163" t="n">
+        <v>109705.62</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>7181.553575530806</v>
+      </c>
+      <c r="E164" t="n">
+        <v>499375.1811167118</v>
+      </c>
+      <c r="F164" t="n">
+        <v>40</v>
+      </c>
+      <c r="G164" t="n">
+        <v>36</v>
+      </c>
+      <c r="H164" t="n">
+        <v>316159.71</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1243513.988838156</v>
+      </c>
+      <c r="E165" t="n">
+        <v>101425.7011176446</v>
+      </c>
+      <c r="F165" t="n">
         <v>24</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G165" t="n">
+        <v>70</v>
+      </c>
+      <c r="H165" t="n">
+        <v>259860.81</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>103756.6271733721</v>
+      </c>
+      <c r="E166" t="n">
+        <v>27963.79759416452</v>
+      </c>
+      <c r="F166" t="n">
+        <v>35</v>
+      </c>
+      <c r="G166" t="n">
+        <v>73</v>
+      </c>
+      <c r="H166" t="n">
+        <v>7424.29</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>146378.5447491688</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4191848.306995084</v>
+      </c>
+      <c r="F167" t="n">
+        <v>48</v>
+      </c>
+      <c r="G167" t="n">
+        <v>92</v>
+      </c>
+      <c r="H167" t="n">
+        <v>54180.88</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4132.711309561495</v>
+      </c>
+      <c r="E168" t="n">
+        <v>64387.17682389449</v>
+      </c>
+      <c r="F168" t="n">
+        <v>17</v>
+      </c>
+      <c r="G168" t="n">
+        <v>57</v>
+      </c>
+      <c r="H168" t="n">
+        <v>130582.89</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1774355.550073505</v>
+      </c>
+      <c r="E169" t="n">
+        <v>84167.05604505297</v>
+      </c>
+      <c r="F169" t="n">
+        <v>45</v>
+      </c>
+      <c r="G169" t="n">
+        <v>14</v>
+      </c>
+      <c r="H169" t="n">
+        <v>119394.62</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>16905.04642167534</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3131033.97135077</v>
+      </c>
+      <c r="F170" t="n">
+        <v>31</v>
+      </c>
+      <c r="G170" t="n">
+        <v>25</v>
+      </c>
+      <c r="H170" t="n">
+        <v>169458.65</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>107844.3389441121</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1488164.504969875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>36</v>
+      </c>
+      <c r="G171" t="n">
+        <v>23</v>
+      </c>
+      <c r="H171" t="n">
+        <v>42615.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>185016.2565961338</v>
+      </c>
+      <c r="E172" t="n">
+        <v>790428.5711095503</v>
+      </c>
+      <c r="F172" t="n">
+        <v>55</v>
+      </c>
+      <c r="G172" t="n">
+        <v>70</v>
+      </c>
+      <c r="H172" t="n">
+        <v>49300.2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>166725.1004151174</v>
+      </c>
+      <c r="E173" t="n">
+        <v>96434.04263535612</v>
+      </c>
+      <c r="F173" t="n">
+        <v>36</v>
+      </c>
+      <c r="G173" t="n">
+        <v>64</v>
+      </c>
+      <c r="H173" t="n">
+        <v>202461.98</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>174518.7635369085</v>
+      </c>
+      <c r="E174" t="n">
+        <v>931820.4452327986</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17</v>
+      </c>
+      <c r="H174" t="n">
+        <v>92411.03</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1332452.079511619</v>
+      </c>
+      <c r="E175" t="n">
+        <v>344635.7500181831</v>
+      </c>
+      <c r="F175" t="n">
+        <v>21</v>
+      </c>
+      <c r="G175" t="n">
+        <v>59</v>
+      </c>
+      <c r="H175" t="n">
+        <v>58105.92</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>315178.6822436717</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3294294.985640207</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="n">
+        <v>67</v>
+      </c>
+      <c r="H176" t="n">
+        <v>175723.91</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>101890.8539200746</v>
+      </c>
+      <c r="E177" t="n">
+        <v>83710.20998634296</v>
+      </c>
+      <c r="F177" t="n">
+        <v>55</v>
+      </c>
+      <c r="G177" t="n">
+        <v>69</v>
+      </c>
+      <c r="H177" t="n">
+        <v>212617.98</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>604926.9201288034</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3920764.318590274</v>
+      </c>
+      <c r="F178" t="n">
+        <v>26</v>
+      </c>
+      <c r="G178" t="n">
+        <v>33</v>
+      </c>
+      <c r="H178" t="n">
+        <v>291813.07</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>22491.14743451379</v>
+      </c>
+      <c r="E179" t="n">
+        <v>483399.2485521919</v>
+      </c>
+      <c r="F179" t="n">
+        <v>40</v>
+      </c>
+      <c r="G179" t="n">
+        <v>92</v>
+      </c>
+      <c r="H179" t="n">
+        <v>58313.99</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>176162.1816336589</v>
+      </c>
+      <c r="E180" t="n">
+        <v>592379.7038978767</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15</v>
+      </c>
+      <c r="G180" t="n">
+        <v>13</v>
+      </c>
+      <c r="H180" t="n">
+        <v>87416.92</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2164181.998045319</v>
+      </c>
+      <c r="E181" t="n">
+        <v>103402.2400702805</v>
+      </c>
+      <c r="F181" t="n">
+        <v>46</v>
+      </c>
+      <c r="G181" t="n">
+        <v>71</v>
+      </c>
+      <c r="H181" t="n">
+        <v>202907.76</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1381180.26823817</v>
+      </c>
+      <c r="E182" t="n">
+        <v>59755.89801771747</v>
+      </c>
+      <c r="F182" t="n">
+        <v>15</v>
+      </c>
+      <c r="G182" t="n">
+        <v>71</v>
+      </c>
+      <c r="H182" t="n">
+        <v>138658.01</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>27225.13053677868</v>
+      </c>
+      <c r="E183" t="n">
+        <v>205715.2387786153</v>
+      </c>
+      <c r="F183" t="n">
+        <v>18</v>
+      </c>
+      <c r="G183" t="n">
+        <v>32</v>
+      </c>
+      <c r="H183" t="n">
+        <v>51576.65</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>694200.3087068172</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3427774.656394924</v>
+      </c>
+      <c r="F184" t="n">
+        <v>42</v>
+      </c>
+      <c r="G184" t="n">
+        <v>57</v>
+      </c>
+      <c r="H184" t="n">
+        <v>12020.37</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>47537.28380715576</v>
+      </c>
+      <c r="E185" t="n">
+        <v>211030.1698740764</v>
+      </c>
+      <c r="F185" t="n">
+        <v>26</v>
+      </c>
+      <c r="G185" t="n">
+        <v>81</v>
+      </c>
+      <c r="H185" t="n">
+        <v>318204.85</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1676246.64679491</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2313049.306244316</v>
+      </c>
+      <c r="F186" t="n">
+        <v>39</v>
+      </c>
+      <c r="G186" t="n">
+        <v>23</v>
+      </c>
+      <c r="H186" t="n">
+        <v>266236.71</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>836025.2183583169</v>
+      </c>
+      <c r="E187" t="n">
+        <v>32479.626745902</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>7</v>
+      </c>
+      <c r="H187" t="n">
+        <v>72194.55</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>11052.36555702588</v>
+      </c>
+      <c r="E188" t="n">
+        <v>95507.30125336806</v>
+      </c>
+      <c r="F188" t="n">
+        <v>49</v>
+      </c>
+      <c r="G188" t="n">
+        <v>20</v>
+      </c>
+      <c r="H188" t="n">
+        <v>35608.21</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1312081.276940664</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2534051.871581557</v>
+      </c>
+      <c r="F189" t="n">
         <v>51</v>
+      </c>
+      <c r="G189" t="n">
+        <v>103</v>
+      </c>
+      <c r="H189" t="n">
+        <v>127907.95</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>521905.7240563087</v>
+      </c>
+      <c r="E190" t="n">
+        <v>39315.87435204803</v>
+      </c>
+      <c r="F190" t="n">
+        <v>27</v>
+      </c>
+      <c r="G190" t="n">
+        <v>37</v>
+      </c>
+      <c r="H190" t="n">
+        <v>66892.91</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20743.31171494612</v>
+      </c>
+      <c r="E191" t="n">
+        <v>936708.7447880665</v>
+      </c>
+      <c r="F191" t="n">
+        <v>28</v>
+      </c>
+      <c r="G191" t="n">
+        <v>88</v>
+      </c>
+      <c r="H191" t="n">
+        <v>187657.67</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>866433.9126183938</v>
+      </c>
+      <c r="E192" t="n">
+        <v>291390.3068709663</v>
+      </c>
+      <c r="F192" t="n">
+        <v>31</v>
+      </c>
+      <c r="G192" t="n">
+        <v>27</v>
+      </c>
+      <c r="H192" t="n">
+        <v>123977.01</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>724198.910985657</v>
+      </c>
+      <c r="E193" t="n">
+        <v>479979.8349822157</v>
+      </c>
+      <c r="F193" t="n">
+        <v>48</v>
+      </c>
+      <c r="G193" t="n">
+        <v>34</v>
+      </c>
+      <c r="H193" t="n">
+        <v>150410.62</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1970074.836608694</v>
+      </c>
+      <c r="E194" t="n">
+        <v>27315.70648896345</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>107</v>
+      </c>
+      <c r="H194" t="n">
+        <v>33290.44</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>352381.0781789338</v>
+      </c>
+      <c r="E195" t="n">
+        <v>83707.78220242498</v>
+      </c>
+      <c r="F195" t="n">
+        <v>26</v>
+      </c>
+      <c r="G195" t="n">
+        <v>83</v>
+      </c>
+      <c r="H195" t="n">
+        <v>210217.31</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1419866.62344941</v>
+      </c>
+      <c r="E196" t="n">
+        <v>763106.7270961836</v>
+      </c>
+      <c r="F196" t="n">
+        <v>33</v>
+      </c>
+      <c r="G196" t="n">
+        <v>71</v>
+      </c>
+      <c r="H196" t="n">
+        <v>230357.09</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>51670.83317583167</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1350455.126997512</v>
+      </c>
+      <c r="F197" t="n">
+        <v>26</v>
+      </c>
+      <c r="G197" t="n">
+        <v>56</v>
+      </c>
+      <c r="H197" t="n">
+        <v>192440.77</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>703009.3223879078</v>
+      </c>
+      <c r="E198" t="n">
+        <v>933537.4463899492</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" t="n">
+        <v>82</v>
+      </c>
+      <c r="H198" t="n">
+        <v>310922.08</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>117806.2077934865</v>
+      </c>
+      <c r="E199" t="n">
+        <v>58270.43332657023</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8</v>
+      </c>
+      <c r="G199" t="n">
+        <v>107</v>
+      </c>
+      <c r="H199" t="n">
+        <v>165142.99</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1940744.073669723</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4311644.612645733</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
+      <c r="G200" t="n">
+        <v>66</v>
+      </c>
+      <c r="H200" t="n">
+        <v>40743.61</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2144400.905346606</v>
+      </c>
+      <c r="E201" t="n">
+        <v>76459.53624434474</v>
+      </c>
+      <c r="F201" t="n">
+        <v>19</v>
+      </c>
+      <c r="G201" t="n">
+        <v>16</v>
+      </c>
+      <c r="H201" t="n">
+        <v>135551.55</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>131852.3821022655</v>
+      </c>
+      <c r="E202" t="n">
+        <v>747386.5280239534</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13</v>
+      </c>
+      <c r="G202" t="n">
+        <v>68</v>
+      </c>
+      <c r="H202" t="n">
+        <v>234346</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>86443.65433269359</v>
+      </c>
+      <c r="E203" t="n">
+        <v>676114.251567558</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6</v>
+      </c>
+      <c r="G203" t="n">
+        <v>91</v>
+      </c>
+      <c r="H203" t="n">
+        <v>309700.92</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>629202.0908521273</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1108155.808810848</v>
+      </c>
+      <c r="F204" t="n">
+        <v>33</v>
+      </c>
+      <c r="G204" t="n">
+        <v>40</v>
+      </c>
+      <c r="H204" t="n">
+        <v>135225.84</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>1516983.949862516</v>
+      </c>
+      <c r="E205" t="n">
+        <v>972930.5045254111</v>
+      </c>
+      <c r="F205" t="n">
+        <v>12</v>
+      </c>
+      <c r="G205" t="n">
+        <v>63</v>
+      </c>
+      <c r="H205" t="n">
+        <v>322325.14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1691.420595245201</v>
+      </c>
+      <c r="E206" t="n">
+        <v>42482.60499502627</v>
+      </c>
+      <c r="F206" t="n">
+        <v>17</v>
+      </c>
+      <c r="G206" t="n">
+        <v>28</v>
+      </c>
+      <c r="H206" t="n">
+        <v>175787.09</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>133684.0467020883</v>
+      </c>
+      <c r="E207" t="n">
+        <v>917033.9336986897</v>
+      </c>
+      <c r="F207" t="n">
+        <v>29</v>
+      </c>
+      <c r="G207" t="n">
+        <v>28</v>
+      </c>
+      <c r="H207" t="n">
+        <v>195769.67</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>754474.5006479379</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2404851.564198856</v>
+      </c>
+      <c r="F208" t="n">
+        <v>48</v>
+      </c>
+      <c r="G208" t="n">
+        <v>24</v>
+      </c>
+      <c r="H208" t="n">
+        <v>149007.91</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>724898.0351053191</v>
+      </c>
+      <c r="E209" t="n">
+        <v>49939.85992691913</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G209" t="n">
+        <v>32</v>
+      </c>
+      <c r="H209" t="n">
+        <v>264107.47</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>386476.4664234129</v>
+      </c>
+      <c r="E210" t="n">
+        <v>895781.4821469398</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23</v>
+      </c>
+      <c r="G210" t="n">
+        <v>91</v>
+      </c>
+      <c r="H210" t="n">
+        <v>303545.23</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>663551.997583719</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4881803.08505108</v>
+      </c>
+      <c r="F211" t="n">
+        <v>19</v>
+      </c>
+      <c r="G211" t="n">
+        <v>64</v>
+      </c>
+      <c r="H211" t="n">
+        <v>199867.5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1922590.187944814</v>
+      </c>
+      <c r="E212" t="n">
+        <v>249642.8418648228</v>
+      </c>
+      <c r="F212" t="n">
+        <v>42</v>
+      </c>
+      <c r="G212" t="n">
+        <v>42</v>
+      </c>
+      <c r="H212" t="n">
+        <v>234005.44</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>产品线D</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>714969.2064065733</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3062168.280215332</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+      <c r="G213" t="n">
+        <v>21</v>
+      </c>
+      <c r="H213" t="n">
+        <v>240827.81</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>产品线A</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>975683.6763461424</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3496923.991846079</v>
+      </c>
+      <c r="F214" t="n">
+        <v>26</v>
+      </c>
+      <c r="G214" t="n">
+        <v>72</v>
+      </c>
+      <c r="H214" t="n">
+        <v>239514.54</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>低风险</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1258783.207183809</v>
+      </c>
+      <c r="E215" t="n">
+        <v>973946.2906107783</v>
+      </c>
+      <c r="F215" t="n">
+        <v>34</v>
+      </c>
+      <c r="G215" t="n">
+        <v>26</v>
+      </c>
+      <c r="H215" t="n">
+        <v>14722.44</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>西部区</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>562732.8147539181</v>
+      </c>
+      <c r="E216" t="n">
+        <v>358414.0504620133</v>
+      </c>
+      <c r="F216" t="n">
+        <v>48</v>
+      </c>
+      <c r="G216" t="n">
+        <v>86</v>
+      </c>
+      <c r="H216" t="n">
+        <v>283190.47</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>186784.2956021397</v>
+      </c>
+      <c r="E217" t="n">
+        <v>944652.4994422435</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5</v>
+      </c>
+      <c r="H217" t="n">
+        <v>176245.19</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>华北区</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1613409.194039899</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5140315.16240445</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>103</v>
+      </c>
+      <c r="H218" t="n">
+        <v>139803.72</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>高风险</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>356423.9709926823</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2986313.190408307</v>
+      </c>
+      <c r="F219" t="n">
+        <v>48</v>
+      </c>
+      <c r="G219" t="n">
+        <v>87</v>
+      </c>
+      <c r="H219" t="n">
+        <v>128106.52</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>产品线C</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>华东区</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>144064.8844811974</v>
+      </c>
+      <c r="E220" t="n">
+        <v>858666.1403497763</v>
+      </c>
+      <c r="F220" t="n">
+        <v>52</v>
+      </c>
+      <c r="G220" t="n">
+        <v>39</v>
+      </c>
+      <c r="H220" t="n">
+        <v>141433.56</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>产品线B</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>华南区</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中风险</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>35807.69383533246</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1283544.825414889</v>
+      </c>
+      <c r="F221" t="n">
+        <v>21</v>
+      </c>
+      <c r="G221" t="n">
+        <v>7</v>
+      </c>
+      <c r="H221" t="n">
+        <v>56217.9</v>
       </c>
     </row>
   </sheetData>
